--- a/biology/Botanique/Maladies_de_la_vigne/Maladies_de_la_vigne.xlsx
+++ b/biology/Botanique/Maladies_de_la_vigne/Maladies_de_la_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste des maladies de la vigne (Vitis spp.) (liste non exhaustive).
 </t>
@@ -511,7 +523,9 @@
           <t>Maladies bactériennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>nécrose bactérienne de la vigne, Xylophilus ampelinus = Xanthomonas ampelina ;
 galle du collet, Agrobacterium tumefaciens ;
@@ -543,7 +557,9 @@
           <t>Maladies fongiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>alternariose, Alternaria alternata ;
 anthracnose, Elsinoe ampelina ou Sphaceloma ampelinum [anamorphe] ;
@@ -586,7 +602,9 @@
           <t>Maladies dues aux nématodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>nématodes des racines des agrumes, Tylenchulus semipenetrans ;
 Xiphinema spp., Xiphinema americanum, Xiphinema index ;
@@ -626,11 +644,13 @@
           <t>Maladies à phytoplasmes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bois noir, phytoplasme (parasite se développant dans la sève)[1] ;
-Flavescence dorée, classée dans les maladies à phytoplasmes[1] réputée transmise par un vecteur insecte (cicadelle : Scaphoideus titanus) ;
-Jaunisse de la vigne, nom générique des phytoplasmoses de la vigne[1],[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bois noir, phytoplasme (parasite se développant dans la sève) ;
+Flavescence dorée, classée dans les maladies à phytoplasmes réputée transmise par un vecteur insecte (cicadelle : Scaphoideus titanus) ;
+Jaunisse de la vigne, nom générique des phytoplasmoses de la vigne,.</t>
         </is>
       </c>
     </row>
@@ -658,7 +678,9 @@
           <t>Maladies à virus et viroïdes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>virus de la mosaïque de l'arabette, ArMV (Arabis mosaic virus) ;
 virus latent italien de l'artichaut, AILV (Artichoke italian latent virus) ;
@@ -715,7 +737,9 @@
           <t>Autres maladies et désordres physiologiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>pourrissement des baies, levures ;
 chlorose, carence en fer ;
